--- a/prompt_engineering/experiments/mutation_llama32_3B_grok.xlsx
+++ b/prompt_engineering/experiments/mutation_llama32_3B_grok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,182 +473,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24EM03456</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KRAS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>p.A59E</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1777</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Potentiel</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24EM03456</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TP53</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
+          <t>EGFR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p.P250L</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1939</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24EM03461</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KRAS</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
+          <t>BRAF</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>p.G12A</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
+          <t>p.N581I</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Avéré</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24EM03461</t>
+          <t>24EM03355</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SMAD4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
+          <t>STK11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>p.R135*</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
+          <t>p.P281Rfs*6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Mutations avec impact clinique indéterminé</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24EM03461</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SMAD4</t>
+          <t>KRAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>p.R496H</t>
+          <t>p.A59E</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1407</v>
+        <v>1777</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Potentiel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24EM03461</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FBXW7</t>
+          <t>TP53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p.R479Q</t>
+          <t>p.P250L</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2000</v>
+        <v>1939</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -659,493 +683,845 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24EM03462</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PIK3CA</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+          <t>EGFR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>p.R88Q</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1702</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mutations avec impact clinique potentiel</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24EM03462</t>
+          <t>24EM03456</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PIK3CA</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
+          <t>BRAF</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>p.H1047R</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>41</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mutations avec impact clinique potentiel</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24EM03462</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ESR1</t>
+          <t>KRAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p.Y537S</t>
+          <t>p.G12A</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mutations avec impact clinique potentiel</t>
+          <t>Avéré</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24EM03462</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP53</t>
+          <t>SMAD4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>p.A161T</t>
+          <t>p.R135*</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>934</v>
+        <v>1999</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mutations avec impact clinique indéterminé</t>
+          <t>Indéterminé</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24EM04099</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>SMAD4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>p.R496H</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Indéterminé</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24EM04107</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>FBXW7</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>p.R479Q</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Indéterminé</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24EM04337</t>
+          <t>24EM03461</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>35</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>p.E1751D</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24EM04347</t>
+          <t>24EM03462</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>PIK3CA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>p.R88Q</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24EM03451</t>
+          <t>24EM03462</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FOXL2</t>
+          <t>PIK3CA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p.C134W</t>
+          <t>p.H1047R</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>879</v>
+        <v>2000</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24EM03460</t>
+          <t>24EM03462</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>ESR1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>p.Y537S</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24EM03460</t>
+          <t>24EM03462</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KRAS</t>
+          <t>TP53</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>p.G12D</t>
+          <t>p.A161T</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1992</v>
+        <v>934</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Avéré</t>
+          <t>Mutations avec impact clinique indéterminé</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24EM03460</t>
+          <t>24EM03839</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP53</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
+          <t>BRAF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>p.H214Lfs*33</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F19" t="n">
-        <v>60</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24EM03308</t>
+          <t>24EM03839</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NRAS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>p.Q61K</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>24EM03352</t>
+          <t>24EM03839</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KRAS</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
+          <t>TERT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Promoteur</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>p.G12V</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1644</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>chr5:1295228C&gt;T (C228T)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Avéré</t>
+          <t>Mutations avec impact clinique potentiel</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>24EM04099</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24EM04107</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24EM04337</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>35</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>p.E1751D</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F24" t="n">
+        <v>38</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Indéterminé</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24EM04347</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24EM03451</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>24EM03451</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FOXL2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>p.C134W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Indéterminé</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>24EM03460</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KRAS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>p.G12D</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F28" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Avéré</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>24EM03460</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TP53</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>p.H214Lfs*33</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Indéterminé</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>24EM03308</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>24EM03352</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KRAS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>p.G12V</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Avéré</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>24EM03352</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>TP53</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C32" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>p.Y163*</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E32" t="n">
         <v>1041</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F32" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Indéterminé</t>
         </is>
